--- a/testData_cucumber/Desktop/Symbility/DataRepo.xlsx
+++ b/testData_cucumber/Desktop/Symbility/DataRepo.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -38,11 +38,14 @@
   <si>
     <t>TC001_Homeowners_XM_STP_Assignment</t>
   </si>
+  <si>
+    <t>TC001_Notepad operations</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -415,24 +418,24 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="96.85546875" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="99.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.140625" style="2" collapsed="1"/>
-    <col min="4" max="4" width="16.42578125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="96.88671875" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="99.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.109375" style="2" collapsed="1"/>
+    <col min="4" max="4" width="16.44140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="39" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.85546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="9.140625" style="2" collapsed="1"/>
-    <col min="9" max="9" width="16.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="6" max="6" width="16.44140625" style="2" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.88671875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="9.109375" style="2" collapsed="1"/>
+    <col min="9" max="9" width="16.5546875" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="16384" width="9.109375" style="2" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +454,7 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
@@ -459,75 +462,79 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
     </row>
